--- a/doc/議事録/C１_スケジュール.xlsx
+++ b/doc/議事録/C１_スケジュール.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\議事録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32E2A36-9137-43C1-8882-4331706D1CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1326051F-E6FD-46DA-B4EB-47C039E5135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="10545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6月" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -202,15 +202,49 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>開発</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
+    <t xml:space="preserve">データベース
+JavaBeans
+</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データベース
+JSP
+（機能）
+CSS,JS</t>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データベース
+JSP
+（機能）
+CSS,JS</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DAO
+Servlet
+(デザイン）
+CSS
+</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DAO
+Servlet
+(デザイン）
+CSS</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>発表項目準備
-開発</t>
+DAO
+Servlet
+(デザイン）
+CSS</t>
     <rPh sb="0" eb="2">
       <t>ハッピョウ</t>
     </rPh>
@@ -220,14 +254,14 @@
     <rPh sb="4" eb="6">
       <t>ジュンビ</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイハツ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t xml:space="preserve">発表項目準備
-開発
+DAO
+Servlet
+(デザイン）
+CSS
 </t>
     <rPh sb="0" eb="2">
       <t>ハッピョウ</t>
@@ -237,9 +271,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -540,6 +571,18 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,20 +595,8 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:O8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -1011,10 +1042,10 @@
       <c r="E2" s="6"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -1025,34 +1056,34 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="22"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="2:15" s="2" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="17">
@@ -1102,14 +1133,14 @@
         <f>B5+1</f>
         <v>44718</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="5">
         <f>D5+1</f>
         <v>44719</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="5">
@@ -1130,7 +1161,7 @@
         <f>J5+1</f>
         <v>44722</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="22" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="12">
@@ -1156,29 +1187,29 @@
         <f>D6+1</f>
         <v>44726</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>18</v>
+      <c r="G6" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="H6" s="5">
         <f>F6+1</f>
         <v>44727</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>18</v>
+      <c r="I6" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="5">
         <f>H6+1</f>
         <v>44728</v>
       </c>
-      <c r="K6" s="20" t="s">
-        <v>18</v>
+      <c r="K6" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="L6" s="5">
         <f>J6+1</f>
         <v>44729</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>18</v>
+      <c r="M6" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="N6" s="12">
         <f>L6+1</f>
@@ -1196,35 +1227,35 @@
         <f>B7+1</f>
         <v>44732</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>18</v>
+      <c r="E7" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="5">
         <f>D7+1</f>
         <v>44733</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>19</v>
+      <c r="G7" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="H7" s="5">
         <f>F7+1</f>
         <v>44734</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>20</v>
+      <c r="I7" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="J7" s="5">
         <f>H7+1</f>
         <v>44735</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="5">
         <f>J7+1</f>
         <v>44736</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="N7" s="12">
@@ -1238,26 +1269,26 @@
         <f>N7+1</f>
         <v>44738</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="5">
         <f>B8+1</f>
         <v>44739</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="5">
         <f>D8+1</f>
         <v>44740</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="21" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="5">
         <f>F8+1</f>
         <v>44741</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="5">
